--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1464.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1464.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.314710014310323</v>
+        <v>1.149639964103699</v>
       </c>
       <c r="B1">
-        <v>1.548772672059038</v>
+        <v>2.906500101089478</v>
       </c>
       <c r="C1">
-        <v>2.019213973646352</v>
+        <v>3.805113315582275</v>
       </c>
       <c r="D1">
-        <v>3.698061074111112</v>
+        <v>3.520087242126465</v>
       </c>
       <c r="E1">
-        <v>1.146621960978341</v>
+        <v>1.203027367591858</v>
       </c>
     </row>
   </sheetData>
